--- a/tweets_toddy_201809110116.xlsx
+++ b/tweets_toddy_201809110116.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roger Pina\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gian.napolitano/Downloads/AULAS INSPER 2018 . 1/2 CIENCIA DE DADOS  /Projeto 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3027C31-E355-4BFA-8EDC-907E49323CC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BAB119-2913-364C-9793-96FF4C83F3CA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1126,7 +1126,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1448,17 +1448,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="C147" sqref="C147"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="150" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="128.42578125" customWidth="1"/>
+    <col min="1" max="1" width="128.5" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1522,15 +1522,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1554,15 +1554,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1586,15 +1586,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1602,15 +1602,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
       <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1666,15 +1666,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>12</v>
       </c>
       <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -1690,15 +1690,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>12</v>
       </c>
       <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1714,15 +1714,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>12</v>
       </c>
       <c r="B33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -1762,15 +1762,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>12</v>
       </c>
       <c r="B39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -1794,15 +1794,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>12</v>
       </c>
       <c r="B43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>34</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>36</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>37</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>39</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>40</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>25</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>41</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -1882,15 +1882,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>12</v>
       </c>
       <c r="B54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>43</v>
       </c>
@@ -1898,15 +1898,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>12</v>
       </c>
       <c r="B56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>44</v>
       </c>
@@ -1914,15 +1914,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>12</v>
       </c>
       <c r="B58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>45</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>25</v>
       </c>
@@ -1938,15 +1938,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>12</v>
       </c>
       <c r="B61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>46</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>47</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>25</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>48</v>
       </c>
@@ -1978,15 +1978,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>12</v>
       </c>
       <c r="B66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>49</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>50</v>
       </c>
@@ -2002,15 +2002,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>12</v>
       </c>
       <c r="B69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>51</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>52</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>53</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>54</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>55</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>56</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>57</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>58</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>38</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>59</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>60</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>61</v>
       </c>
@@ -2106,15 +2106,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>12</v>
       </c>
       <c r="B82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>62</v>
       </c>
@@ -2130,31 +2130,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>12</v>
       </c>
       <c r="B85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>12</v>
       </c>
       <c r="B86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>12</v>
       </c>
       <c r="B87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>63</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>64</v>
       </c>
@@ -2170,15 +2170,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>12</v>
       </c>
       <c r="B90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>65</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>66</v>
       </c>
@@ -2194,15 +2194,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>12</v>
       </c>
       <c r="B93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>67</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>68</v>
       </c>
@@ -2218,15 +2218,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>12</v>
       </c>
       <c r="B96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>69</v>
       </c>
@@ -2234,15 +2234,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>12</v>
       </c>
       <c r="B98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>70</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>71</v>
       </c>
@@ -2258,15 +2258,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>12</v>
       </c>
       <c r="B101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>72</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>73</v>
       </c>
@@ -2282,15 +2282,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>12</v>
       </c>
       <c r="B104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>74</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>75</v>
       </c>
@@ -2306,15 +2306,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>12</v>
       </c>
       <c r="B107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>76</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>77</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>78</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>79</v>
       </c>
@@ -2346,23 +2346,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>12</v>
       </c>
       <c r="B112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>12</v>
       </c>
       <c r="B113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>80</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>81</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>82</v>
       </c>
@@ -2386,15 +2386,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>12</v>
       </c>
       <c r="B117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>83</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>84</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>85</v>
       </c>
@@ -2418,15 +2418,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>12</v>
       </c>
       <c r="B121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>86</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>87</v>
       </c>
@@ -2442,15 +2442,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>12</v>
       </c>
       <c r="B124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>88</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>89</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>90</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>25</v>
       </c>
@@ -2482,23 +2482,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>12</v>
       </c>
       <c r="B129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>12</v>
       </c>
       <c r="B130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>25</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>91</v>
       </c>
@@ -2514,15 +2514,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>12</v>
       </c>
       <c r="B133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>92</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>93</v>
       </c>
@@ -2538,15 +2538,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>12</v>
       </c>
       <c r="B136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>76</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>94</v>
       </c>
@@ -2562,15 +2562,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>12</v>
       </c>
       <c r="B139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>95</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>96</v>
       </c>
@@ -2586,15 +2586,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>12</v>
       </c>
       <c r="B142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>97</v>
       </c>
@@ -2602,15 +2602,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>12</v>
       </c>
       <c r="B144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>98</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>99</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>100</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>101</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>38</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>102</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>103</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>104</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>105</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>106</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>107</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>108</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>12</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>12</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>109</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>110</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>12</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>12</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>111</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>112</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>113</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>12</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>11</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>114</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>115</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>116</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>117</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>118</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>12</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>119</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>12</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>5</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>25</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>120</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>12</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>121</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>122</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>123</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>11</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>124</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>12</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>125</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>126</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>12</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>127</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>12</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>128</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>129</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>87</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>130</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>131</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>132</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>133</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>134</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>135</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>136</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>12</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>137</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>12</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>138</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>12</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>139</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>140</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>11</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>12</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>141</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>142</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>76</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>143</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>144</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>12</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>12</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>145</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>12</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>146</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>147</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>12</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>12</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>148</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>149</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>150</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>151</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>152</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>153</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>25</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>154</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>155</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>25</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>156</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>157</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>158</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>12</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>159</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>160</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>314</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>12</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>161</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>12</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>162</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>163</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>164</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>12</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>12</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>165</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>38</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>166</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>167</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>11</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>12</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>168</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>169</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>12</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>170</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>171</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>76</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>172</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>12</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>173</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>12</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>12</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>12</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>12</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>12</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>174</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>175</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>12</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>176</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>177</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>178</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>12</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>76</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>179</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>180</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>181</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>12</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>12</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>182</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>183</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>184</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>11</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>12</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>185</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>186</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>11</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>187</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>12</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>188</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>12</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>12</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>189</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>25</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>190</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>12</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>191</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>192</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>193</v>
       </c>
@@ -3875,16 +3875,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103:D104"/>
+    <sheetView zoomScale="143" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="133.5703125" customWidth="1"/>
+    <col min="1" max="1" width="133.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>194</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -3900,15 +3900,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>195</v>
       </c>
@@ -3916,15 +3916,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>196</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>197</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>198</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>199</v>
       </c>
@@ -3956,15 +3956,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>200</v>
       </c>
@@ -3972,15 +3972,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>201</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>202</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>203</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>204</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>205</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>206</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>207</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>208</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>209</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>210</v>
       </c>
@@ -4060,15 +4060,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>12</v>
       </c>
       <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>211</v>
       </c>
@@ -4076,23 +4076,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>12</v>
       </c>
       <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>12</v>
       </c>
       <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>212</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>213</v>
       </c>
@@ -4108,23 +4108,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>12</v>
       </c>
       <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>12</v>
       </c>
       <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>214</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>215</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>216</v>
       </c>
@@ -4148,15 +4148,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>12</v>
       </c>
       <c r="B34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>217</v>
       </c>
@@ -4164,23 +4164,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>12</v>
       </c>
       <c r="B36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>12</v>
       </c>
       <c r="B37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>218</v>
       </c>
@@ -4188,23 +4188,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>12</v>
       </c>
       <c r="B39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>12</v>
       </c>
       <c r="B40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>219</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>220</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>221</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>222</v>
       </c>
@@ -4244,15 +4244,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>12</v>
       </c>
       <c r="B46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>223</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>224</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>225</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>87</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>226</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>227</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>25</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>228</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -4332,23 +4332,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>12</v>
       </c>
       <c r="B57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>12</v>
       </c>
       <c r="B58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>229</v>
       </c>
@@ -4356,15 +4356,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>12</v>
       </c>
       <c r="B60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>230</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>231</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>232</v>
       </c>
@@ -4388,15 +4388,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>12</v>
       </c>
       <c r="B64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>233</v>
       </c>
@@ -4412,15 +4412,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>12</v>
       </c>
       <c r="B67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>234</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>235</v>
       </c>
@@ -4436,15 +4436,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>12</v>
       </c>
       <c r="B70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>236</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>25</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>237</v>
       </c>
@@ -4468,15 +4468,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>12</v>
       </c>
       <c r="B74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>238</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>239</v>
       </c>
@@ -4492,15 +4492,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>12</v>
       </c>
       <c r="B77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>240</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>241</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>242</v>
       </c>
@@ -4524,15 +4524,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>12</v>
       </c>
       <c r="B81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -4540,15 +4540,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>12</v>
       </c>
       <c r="B83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>25</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>243</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>244</v>
       </c>
@@ -4572,23 +4572,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>12</v>
       </c>
       <c r="B87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>12</v>
       </c>
       <c r="B88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>245</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>246</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>247</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>38</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>248</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>249</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>87</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>250</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>251</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>252</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>25</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>253</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>254</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>12</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>12</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>25</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>255</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>25</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>256</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>257</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>258</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>12</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>259</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>12</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>260</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>261</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>12</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>262</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>263</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>264</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>265</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>12</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>12</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>266</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>267</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>12</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>268</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>269</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>270</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>21</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>271</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>12</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>12</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>272</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>273</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>274</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>12</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>275</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>276</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>277</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>12</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>278</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>279</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>38</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>280</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>281</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>282</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>283</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>12</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>284</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>285</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>12</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>12</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>12</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>286</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>287</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>107</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>25</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>12</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>12</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>288</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>12</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>12</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>289</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>290</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>316</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>291</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>292</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>25</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>293</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>98</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>12</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>294</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>11</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>295</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>296</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>297</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>12</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>298</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>38</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>12</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>299</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>25</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>300</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>301</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>302</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>12</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>12</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>303</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>304</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>305</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>306</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>307</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>12</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>308</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>309</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>310</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>311</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>12</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>312</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>12</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>12</v>
       </c>
